--- a/data/trans_bre/CONS_ANT-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_ANT-Estudios-trans_bre.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,81 +54,11 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -133,11 +66,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,57 +468,57 @@
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género absoluta</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
@@ -592,327 +528,335 @@
       <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Hasta primaria</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,75</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,81</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>75,78%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>43,86%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>15,95%</t>
-        </is>
+      <c r="C4" s="4" t="n">
+        <v>2.438172222577274</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.9905801311654361</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0.06504610526867453</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.6341012673812881</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.5975523458326771</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.03081464878762286</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-0,59; 5,57</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,68; 2,67</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,33; 1,89</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-17,6; 258,31</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-32,24; 260,93</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-50,42; 188,99</t>
-        </is>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>-0.8325498012399547</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>-0.6305944172468634</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>-1.846077129074123</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.1771662555197568</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.3927981153366626</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.6016168441333383</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>5.610669032674425</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>3.054046428188532</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>1.72099630814039</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>2.824825736168692</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>3.550916093789151</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1.482953556128438</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Secundaria</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,66</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,22</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,31</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>26,35%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>11,02%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>49,43%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,71; 1,9</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,83; 1,34</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,26; 0,87</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-22,83; 116,94</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-32,53; 101,14</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-34,01; 221,33</t>
-        </is>
+      <c r="C7" s="4" t="n">
+        <v>0.8954704240603524</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0.1855390715652158</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>0.2697126203930399</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.3542151855885256</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.09516072920203608</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.3821168663404595</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>-0.5924374828527461</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>-1.041544758611953</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>-0.2908869466336146</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.1879232250388767</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.424570825836998</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.3331394215216368</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>2.316969226161074</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>1.388851298707262</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>0.9116850080218983</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.342832938435295</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.9970359856552981</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>1.951491348978773</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Estudios universitarios</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,03</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,39</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>189,42%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>363,22%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>19,38%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,38; 3,98</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>1,13; 4,18</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,65; 0,75</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>9,09; 716,03</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>98,02; 1301,02</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-65,76; 326,64</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>1.804426370481124</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>2.695208198026323</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>0.126901761946641</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.571178937686484</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>4.998995818350664</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.1942206918103064</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>0.1904448559753339</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>1.316751567246508</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>-0.7336362406457756</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.0916458876035765</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>1.075313417879616</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.6586888761051447</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>3.975070351497163</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>4.580595353944487</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>0.8542408597764928</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>8.466549420670914</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>15.23016276600056</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>3.427161560756879</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,49</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,89</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>65,4%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>55,0%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>39,2%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,38; 2,41</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,09; 1,69</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,12; 0,77</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>11,4; 140,1</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>3,51; 130,81</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-14,2; 134,39</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>1.539413156852584</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>1.006328744274389</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>0.2475269904578437</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.666074990090029</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.6613537961047328</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.2900476857919809</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>0.4722414383556041</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>0.20805765548392</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>-0.1980587952005799</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.1339356426490562</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.08543532052484021</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.2050501033892329</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>2.588128350613395</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>1.923235195805022</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>0.7864136713585421</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.534059631066331</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>1.616859206151904</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>1.284274746730623</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
@@ -921,12 +865,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
